--- a/data/trans_orig/P02F-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>429429</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>422804</v>
+        <v>423360</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>433385</v>
+        <v>433332</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9845208244862828</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9693316251945597</v>
+        <v>0.9706054013940724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9935890128445456</v>
+        <v>0.9934681506781684</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>273</v>
@@ -763,19 +763,19 @@
         <v>302104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>294494</v>
+        <v>294265</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>306292</v>
+        <v>306409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.976174952035204</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9515854442383762</v>
+        <v>0.9508457353256786</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9897079985679339</v>
+        <v>0.9900875891688663</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>669</v>
@@ -784,19 +784,19 @@
         <v>731533</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>722427</v>
+        <v>722244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>737576</v>
+        <v>737632</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9810569625913135</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9688451655936311</v>
+        <v>0.9685994430101627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.98916185727114</v>
+        <v>0.9892365214028892</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>6752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2796</v>
+        <v>2849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13377</v>
+        <v>12821</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01547917551371729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006410987155454391</v>
+        <v>0.006531849321831613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0306683748054403</v>
+        <v>0.02939459860592774</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -834,19 +834,19 @@
         <v>7373</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3185</v>
+        <v>3068</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14983</v>
+        <v>15212</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02382504796479606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01029200143206606</v>
+        <v>0.009912410831133672</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0484145557616238</v>
+        <v>0.04915426467432122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -855,19 +855,19 @@
         <v>14125</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8082</v>
+        <v>8026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23231</v>
+        <v>23414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01894303740868655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01083814272885988</v>
+        <v>0.0107634785971108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03115483440636898</v>
+        <v>0.03140055698983762</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>410941</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>402019</v>
+        <v>402510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>414960</v>
+        <v>414980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.985430745184417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9640353191608462</v>
+        <v>0.9652115959345775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9950675311346469</v>
+        <v>0.9951147898456992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>294</v>
@@ -980,19 +980,19 @@
         <v>324128</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>313729</v>
+        <v>314139</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>330440</v>
+        <v>330131</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.961996815082257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9311326552856004</v>
+        <v>0.932349270558961</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9807296244315191</v>
+        <v>0.9798105953573305</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>662</v>
@@ -1001,19 +1001,19 @@
         <v>735070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>723795</v>
+        <v>721130</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>743459</v>
+        <v>742823</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9749583365812652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9600038101991332</v>
+        <v>0.9564698390920391</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9860856356700629</v>
+        <v>0.9852419749804708</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>6076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2057</v>
+        <v>2037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14998</v>
+        <v>14507</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01456925481558301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004932468865353143</v>
+        <v>0.004885210154300705</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03596468083915277</v>
+        <v>0.03478840406542197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1051,19 +1051,19 @@
         <v>12805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6493</v>
+        <v>6802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23204</v>
+        <v>22794</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03800318491774304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01927037556848089</v>
+        <v>0.0201894046426695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06886734471439951</v>
+        <v>0.06765072944103893</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -1072,19 +1072,19 @@
         <v>18880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10491</v>
+        <v>11127</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30155</v>
+        <v>32820</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02504166341873477</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01391436432993613</v>
+        <v>0.01475802501952917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03999618980086644</v>
+        <v>0.04353016090796043</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>619471</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>610531</v>
+        <v>610561</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>623497</v>
+        <v>623496</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9890833411363781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9748099245394408</v>
+        <v>0.9748575031482803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9955120005168114</v>
+        <v>0.9955104413300142</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -1197,19 +1197,19 @@
         <v>251539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>244833</v>
+        <v>244279</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255864</v>
+        <v>255813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9711108173264941</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9452217835082632</v>
+        <v>0.943081092456299</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9878073848089391</v>
+        <v>0.9876103167896804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>818</v>
@@ -1218,19 +1218,19 @@
         <v>871010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>860819</v>
+        <v>861754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>877299</v>
+        <v>878225</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9838250976300532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9723143884296729</v>
+        <v>0.9733700591081155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9909290517402205</v>
+        <v>0.9919750039101057</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>6837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15777</v>
+        <v>15747</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01091665886362195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004487999483188596</v>
+        <v>0.004489558669985805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0251900754605605</v>
+        <v>0.02514249685172068</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1268,19 +1268,19 @@
         <v>7483</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3158</v>
+        <v>3209</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14189</v>
+        <v>14743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02888918267350592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01219261519106086</v>
+        <v>0.01238968321031966</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05477821649173643</v>
+        <v>0.05691890754370054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1289,19 +1289,19 @@
         <v>14320</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8031</v>
+        <v>7105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24511</v>
+        <v>23576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01617490236994678</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009070948259779393</v>
+        <v>0.008024996089894265</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02768561157032712</v>
+        <v>0.02662994089188468</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>1136542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1126296</v>
+        <v>1126120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1143620</v>
+        <v>1143068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9858162429628005</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9769291087399238</v>
+        <v>0.9767767915005269</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9919558808466482</v>
+        <v>0.9914771513081689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>677</v>
@@ -1414,19 +1414,19 @@
         <v>731311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>718605</v>
+        <v>718949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>740825</v>
+        <v>741459</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9564788588836217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9398606948891918</v>
+        <v>0.9403105032167755</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9689222319385385</v>
+        <v>0.969751534924284</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1739</v>
@@ -1435,19 +1435,19 @@
         <v>1867853</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1852843</v>
+        <v>1851031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1880732</v>
+        <v>1880105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9741180908762428</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9662899040165854</v>
+        <v>0.9653449558148209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9808345417102587</v>
+        <v>0.9805078889271497</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>16352</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9274</v>
+        <v>9826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26598</v>
+        <v>26774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01418375703719955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0080441191533519</v>
+        <v>0.008522848691830995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02307089126007658</v>
+        <v>0.02322320849947255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -1485,19 +1485,19 @@
         <v>33276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23762</v>
+        <v>23128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45982</v>
+        <v>45638</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04352114111637823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03107776806146141</v>
+        <v>0.03024846507571595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06013930511080847</v>
+        <v>0.05968949678322474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1506,19 +1506,19 @@
         <v>49628</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36749</v>
+        <v>37376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64638</v>
+        <v>66450</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02588190912375719</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01916545828974052</v>
+        <v>0.01949211107285011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03371009598341431</v>
+        <v>0.03465504418517881</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>500723</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>492933</v>
+        <v>493672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>505500</v>
+        <v>505601</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9825631572302539</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9672762914925257</v>
+        <v>0.9687264806948332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9919361158892724</v>
+        <v>0.9921354697308928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>672</v>
@@ -1631,19 +1631,19 @@
         <v>728983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>716366</v>
+        <v>716258</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>738547</v>
+        <v>738943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9586199414876964</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9420275027802478</v>
+        <v>0.9418858560040266</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9711959650956201</v>
+        <v>0.9717169053856689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1149</v>
@@ -1652,19 +1652,19 @@
         <v>1229707</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1215650</v>
+        <v>1215169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1240396</v>
+        <v>1241069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9682271118435147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9571593763123929</v>
+        <v>0.9567808360258888</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9766438055667366</v>
+        <v>0.9771736078748874</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>8886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4109</v>
+        <v>4008</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16676</v>
+        <v>15937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01743684276974614</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00806388411072758</v>
+        <v>0.007864530269107207</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03272370850747425</v>
+        <v>0.03127351930516677</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1702,19 +1702,19 @@
         <v>31468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21904</v>
+        <v>21508</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44085</v>
+        <v>44193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04138005851230361</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02880403490438005</v>
+        <v>0.02828309461433106</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05797249721975235</v>
+        <v>0.05811414399597347</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -1723,19 +1723,19 @@
         <v>40353</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29664</v>
+        <v>28991</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54410</v>
+        <v>54891</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03177288815648522</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02335619443326314</v>
+        <v>0.02282639212511266</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04284062368760645</v>
+        <v>0.04321916397411115</v>
       </c>
     </row>
     <row r="18">
@@ -1827,7 +1827,7 @@
         <v>264887</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>261029</v>
+        <v>260988</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>265841</v>
@@ -1836,7 +1836,7 @@
         <v>0.9964101773453735</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.981900352965599</v>
+        <v>0.9817432716271471</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1848,19 +1848,19 @@
         <v>1075482</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1062273</v>
+        <v>1062319</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1086053</v>
+        <v>1085575</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9712587807333124</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9593303415015375</v>
+        <v>0.9593713748795014</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9808060221056806</v>
+        <v>0.9803742082643723</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1275</v>
@@ -1869,19 +1869,19 @@
         <v>1340368</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1328111</v>
+        <v>1328300</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1351380</v>
+        <v>1350287</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9761280822896951</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9672019525101871</v>
+        <v>0.9673393429355519</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9841475746180539</v>
+        <v>0.9833512606602418</v>
       </c>
     </row>
     <row r="20">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4812</v>
+        <v>4853</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003589822654626485</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01809964703440103</v>
+        <v>0.01825672837285288</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1919,19 +1919,19 @@
         <v>31825</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21254</v>
+        <v>21732</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45034</v>
+        <v>44988</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02874121926668756</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01919397789431948</v>
+        <v>0.01962579173562765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04066965849846244</v>
+        <v>0.0406286251204984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -1940,19 +1940,19 @@
         <v>32780</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21768</v>
+        <v>22861</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45037</v>
+        <v>44848</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02387191771030497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01585242538194633</v>
+        <v>0.0166487393397581</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03279804748981291</v>
+        <v>0.03266065706444807</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>3361993</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3345172</v>
+        <v>3347388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3373343</v>
+        <v>3376064</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9865436560662002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9816076803903102</v>
+        <v>0.9822581315689933</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9898741762679267</v>
+        <v>0.990672726089962</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3164</v>
@@ -2065,19 +2065,19 @@
         <v>3413549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3387470</v>
+        <v>3390276</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3433152</v>
+        <v>3433802</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.964884921266586</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9575133724471036</v>
+        <v>0.9583067365488314</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9704261494419522</v>
+        <v>0.9706097208705555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6312</v>
@@ -2086,19 +2086,19 @@
         <v>6775541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6745881</v>
+        <v>6746546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6800346</v>
+        <v>6797807</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9755117098397238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9712413754370688</v>
+        <v>0.971337073046999</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9790830236005641</v>
+        <v>0.9787173355895271</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>45857</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34507</v>
+        <v>31786</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>62678</v>
+        <v>60462</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01345634393379985</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01012582373207334</v>
+        <v>0.009327273910037836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0183923196096896</v>
+        <v>0.01774186843100659</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>116</v>
@@ -2136,19 +2136,19 @@
         <v>124229</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>104626</v>
+        <v>103976</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>150308</v>
+        <v>147502</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.035115078733414</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02957385055804787</v>
+        <v>0.02939027912944447</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04248662755289652</v>
+        <v>0.0416932634511686</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>159</v>
@@ -2157,19 +2157,19 @@
         <v>170087</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>145282</v>
+        <v>147821</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>199747</v>
+        <v>199082</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02448829016027619</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02091697639943593</v>
+        <v>0.02128266441047292</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0287586245629313</v>
+        <v>0.02866292695300103</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>419042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>410878</v>
+        <v>411896</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>424063</v>
+        <v>424072</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9765773918431814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9575516235109626</v>
+        <v>0.9599257879105468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9882800102478664</v>
+        <v>0.9883013913687062</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>314</v>
@@ -2524,19 +2524,19 @@
         <v>328285</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>317140</v>
+        <v>317866</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>335571</v>
+        <v>335021</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9514277372475353</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.919126701819648</v>
+        <v>0.9212304803885467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9725425321843535</v>
+        <v>0.9709483805505746</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>700</v>
@@ -2545,19 +2545,19 @@
         <v>747327</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>736375</v>
+        <v>736360</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756472</v>
+        <v>756766</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9653678070419215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9512199601375934</v>
+        <v>0.9512008793843586</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9771815666123261</v>
+        <v>0.9775613114337656</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>10050</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5029</v>
+        <v>5020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18214</v>
+        <v>17196</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02342260815681861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01171998975213365</v>
+        <v>0.01169860863129375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04244837648903735</v>
+        <v>0.04007421208945319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2595,19 +2595,19 @@
         <v>16760</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9474</v>
+        <v>10024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27905</v>
+        <v>27179</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04857226275246476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02745746781564653</v>
+        <v>0.02905161944942522</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08087329818035204</v>
+        <v>0.07876951961145323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -2616,19 +2616,19 @@
         <v>26810</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17665</v>
+        <v>17371</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37762</v>
+        <v>37777</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03463219295807852</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02281843338767389</v>
+        <v>0.02243868856623447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04878003986240667</v>
+        <v>0.04879912061564162</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>373458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>368721</v>
+        <v>367672</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>375469</v>
+        <v>375463</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.992283874085368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9796988386763165</v>
+        <v>0.976909413736304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9976263799847853</v>
+        <v>0.9976121675402643</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -2741,19 +2741,19 @@
         <v>357088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>347611</v>
+        <v>348879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>363015</v>
+        <v>363422</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9692608309041202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9435364061366414</v>
+        <v>0.9469784352043861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9853474233147275</v>
+        <v>0.9864531981398634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>688</v>
@@ -2762,19 +2762,19 @@
         <v>730545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>720774</v>
+        <v>721243</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>737081</v>
+        <v>736986</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9808952194958722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9677760009587921</v>
+        <v>0.9684047197723411</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9896705828167636</v>
+        <v>0.9895436960197245</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>2904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7641</v>
+        <v>8690</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007716125914632041</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002373620015214599</v>
+        <v>0.002387832459735754</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02030116132368353</v>
+        <v>0.02309058626369606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -2812,19 +2812,19 @@
         <v>11325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5398</v>
+        <v>4991</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20802</v>
+        <v>19534</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0307391690958798</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01465257668527256</v>
+        <v>0.01354680186013655</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05646359386335855</v>
+        <v>0.05302156479561387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -2833,19 +2833,19 @@
         <v>14229</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7693</v>
+        <v>7788</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24000</v>
+        <v>23531</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01910478050412783</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0103294171832366</v>
+        <v>0.0104563039802756</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03222399904120782</v>
+        <v>0.03159528022765887</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>502828</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>493453</v>
+        <v>492954</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>509373</v>
+        <v>509459</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9724093286932326</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9542800474129461</v>
+        <v>0.9533141921337546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9850668599352759</v>
+        <v>0.9852323588091211</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -2958,19 +2958,19 @@
         <v>162116</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156972</v>
+        <v>157163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164166</v>
+        <v>164168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9815426620430204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.950401021503759</v>
+        <v>0.9515588425366913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9939577886071748</v>
+        <v>0.9939717982326502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>634</v>
@@ -2979,19 +2979,19 @@
         <v>664944</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>655544</v>
+        <v>655439</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>672352</v>
+        <v>672406</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9746203659046691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9608427747039299</v>
+        <v>0.9606890477464509</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9854796996274009</v>
+        <v>0.9855584976319618</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>14267</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7722</v>
+        <v>7636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23642</v>
+        <v>24141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02759067130676738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0149331400647241</v>
+        <v>0.01476764119087887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04571995258705382</v>
+        <v>0.0466858078662453</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3029,19 +3029,19 @@
         <v>3048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8192</v>
+        <v>8001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01845733795697958</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006042211392825227</v>
+        <v>0.006028201767349772</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04959897849624094</v>
+        <v>0.04844115746330861</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -3050,19 +3050,19 @@
         <v>17315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9907</v>
+        <v>9853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26715</v>
+        <v>26820</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02537963409533098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01452030037259911</v>
+        <v>0.01444150236803829</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03915722529607021</v>
+        <v>0.0393109522535491</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>1122623</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1110920</v>
+        <v>1113107</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1129766</v>
+        <v>1130474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9824078537461682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9721667716540854</v>
+        <v>0.9740803157624925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9886586035929423</v>
+        <v>0.9892786316828699</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>765</v>
@@ -3175,19 +3175,19 @@
         <v>791309</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>778134</v>
+        <v>779154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>802091</v>
+        <v>800411</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9630007272188895</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9469662961231264</v>
+        <v>0.9482077894833292</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9761221544379834</v>
+        <v>0.9740773355712377</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1842</v>
@@ -3196,19 +3196,19 @@
         <v>1913932</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1899292</v>
+        <v>1898874</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1925835</v>
+        <v>1926197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9742899799433427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9668375288191985</v>
+        <v>0.966624691022666</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9803492121538233</v>
+        <v>0.9805335321150898</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>20103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12960</v>
+        <v>12252</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31806</v>
+        <v>29619</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01759214625383177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01134139640705778</v>
+        <v>0.01072136831713013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02783322834591483</v>
+        <v>0.02591968423750749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -3246,19 +3246,19 @@
         <v>30403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19621</v>
+        <v>21301</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43578</v>
+        <v>42558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03699927278111045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02387784556201655</v>
+        <v>0.02592266442876219</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05303370387687377</v>
+        <v>0.05179221051667085</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>49</v>
@@ -3267,19 +3267,19 @@
         <v>50506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38603</v>
+        <v>38241</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65146</v>
+        <v>65564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02571002005665739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01965078784617667</v>
+        <v>0.01946646788491034</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0331624711808015</v>
+        <v>0.033375308977334</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>606718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>597411</v>
+        <v>597198</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>612914</v>
+        <v>612787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9788322855703089</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9638168590117177</v>
+        <v>0.9634722139581664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9888273876969499</v>
+        <v>0.988622694188129</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>648</v>
@@ -3392,19 +3392,19 @@
         <v>682530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>666699</v>
+        <v>665316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>695939</v>
+        <v>695702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.928967573847189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9074209221612711</v>
+        <v>0.905537563106336</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.947218100645742</v>
+        <v>0.9468950622791474</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1232</v>
@@ -3413,19 +3413,19 @@
         <v>1289249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1269407</v>
+        <v>1270483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1303514</v>
+        <v>1304396</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9517854271235091</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9371375190197085</v>
+        <v>0.9379316737922347</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9623168388308611</v>
+        <v>0.9629679990680534</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>13121</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6925</v>
+        <v>7052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22428</v>
+        <v>22641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02116771442969106</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01117261230305013</v>
+        <v>0.01137730581187097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03618314098828236</v>
+        <v>0.03652778604183358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>48</v>
@@ -3463,19 +3463,19 @@
         <v>52189</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38780</v>
+        <v>39017</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68020</v>
+        <v>69403</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.071032426152811</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05278189935425813</v>
+        <v>0.05310493772085226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09257907783872896</v>
+        <v>0.0944624368936629</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>60</v>
@@ -3484,19 +3484,19 @@
         <v>65309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51044</v>
+        <v>50162</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85151</v>
+        <v>84075</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04821457287649089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03768316116913895</v>
+        <v>0.03703200093194643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06286248098029147</v>
+        <v>0.06206832620776449</v>
       </c>
     </row>
     <row r="18">
@@ -3588,7 +3588,7 @@
         <v>283184</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>279107</v>
+        <v>279104</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>285183</v>
@@ -3597,7 +3597,7 @@
         <v>0.9929890078556147</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.978694962320658</v>
+        <v>0.9786827800845096</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -3609,19 +3609,19 @@
         <v>1036062</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1021184</v>
+        <v>1019796</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1047460</v>
+        <v>1046774</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9644905169836582</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9506401994467678</v>
+        <v>0.949347675611812</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9751006636911358</v>
+        <v>0.974462533412869</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1219</v>
@@ -3630,19 +3630,19 @@
         <v>1319246</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1303864</v>
+        <v>1305081</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1331203</v>
+        <v>1331697</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9704691398761696</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9591533721227924</v>
+        <v>0.9600489675254331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9792651033322618</v>
+        <v>0.9796287154950004</v>
       </c>
     </row>
     <row r="20">
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6076</v>
+        <v>6079</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007010992144385261</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02130503767934201</v>
+        <v>0.02131721991549029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -3680,19 +3680,19 @@
         <v>38145</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26747</v>
+        <v>27433</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53023</v>
+        <v>54411</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0355094830163418</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0248993363088641</v>
+        <v>0.02553746658713092</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04935980055323205</v>
+        <v>0.050652324388188</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -3701,19 +3701,19 @@
         <v>40144</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28187</v>
+        <v>27693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55526</v>
+        <v>54309</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02953086012383038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02073489666773802</v>
+        <v>0.02037128450499967</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04084662787720757</v>
+        <v>0.03995103247456684</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>3307852</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3289763</v>
+        <v>3289145</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3322598</v>
+        <v>3322488</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9814721066518139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9761047025576041</v>
+        <v>0.9759212678737188</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9858472363635337</v>
+        <v>0.9858145314989278</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3165</v>
@@ -3826,19 +3826,19 @@
         <v>3357390</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3331127</v>
+        <v>3329789</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3381379</v>
+        <v>3381806</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.956723367303252</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9492393514850826</v>
+        <v>0.9488582464879505</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9635592455087136</v>
+        <v>0.9636809336238545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6315</v>
@@ -3847,19 +3847,19 @@
         <v>6665243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6632765</v>
+        <v>6632409</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6693160</v>
+        <v>6691074</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9688477844784213</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9641268331239369</v>
+        <v>0.9640751894952322</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9729058364479971</v>
+        <v>0.972602655255005</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>62445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47699</v>
+        <v>47809</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>80534</v>
+        <v>81152</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01852789334818609</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01415276363646641</v>
+        <v>0.01418546850107214</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02389529744239597</v>
+        <v>0.02407873212628121</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>141</v>
@@ -3897,19 +3897,19 @@
         <v>151869</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>127880</v>
+        <v>127453</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>178132</v>
+        <v>179470</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.043276632696748</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03644075449128636</v>
+        <v>0.03631906637614535</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05076064851491705</v>
+        <v>0.05114175351204893</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>200</v>
@@ -3918,19 +3918,19 @@
         <v>214313</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>186396</v>
+        <v>188482</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>246791</v>
+        <v>247147</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03115221552157863</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02709416355200245</v>
+        <v>0.02739734474499492</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03587316687606297</v>
+        <v>0.03592481050476764</v>
       </c>
     </row>
     <row r="24">
